--- a/medicine/Enfance/Alpha_Mandé_Diarra/Alpha_Mandé_Diarra.xlsx
+++ b/medicine/Enfance/Alpha_Mandé_Diarra/Alpha_Mandé_Diarra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alpha_Mand%C3%A9_Diarra</t>
+          <t>Alpha_Mandé_Diarra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpha Mandé Diarra est un écrivain malien, né en 1954 à Nonkon, dans la région de Kayes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alpha_Mand%C3%A9_Diarra</t>
+          <t>Alpha_Mandé_Diarra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpha Mandé Diarra a fait ses études à l’École nationale vétérinaire d'Alfort (Maisons-Alfort, Val-de-Marne) en France où il s’est marié. Il est retourné vivre et travailler comme vétérinaire au Mali, à Bamako et à Fana.
 En 1981, il publie son premier roman Sahel, sanglante sécheresse. 
-En 1999, il publie un roman policier pour enfants, Rapt à Bamako écrit avec Marie-Florence Ehret[1].
-Alpha Mandé Diarra est journaliste à mi-temps et chargé de communication à la Compagnie malienne pour le développement du textile (CMDT)[2].
+En 1999, il publie un roman policier pour enfants, Rapt à Bamako écrit avec Marie-Florence Ehret.
+Alpha Mandé Diarra est journaliste à mi-temps et chargé de communication à la Compagnie malienne pour le développement du textile (CMDT).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alpha_Mand%C3%A9_Diarra</t>
+          <t>Alpha_Mandé_Diarra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sahel, sanglante sécheresse, Présence africaine, 1981  (ISBN 2-7087-0389-7)
 La Nièce de l’imam, Éditions Sépia, 1994  (ISBN 2-907888-53-6)
 Rapt à Bamako (avec Marie-Florence Ehret), Éditions Le Figuier/EDICEF, 1999  (ISBN 2-84129-645-8)
-Nouvelles du Mali (avec Ousmane Diarra, Sirafily Diango, Moussa Konaté et Yambo Ouologuem), Magellan &amp; Cie Courrier international, mars 2008[3].</t>
+Nouvelles du Mali (avec Ousmane Diarra, Sirafily Diango, Moussa Konaté et Yambo Ouologuem), Magellan &amp; Cie Courrier international, mars 2008.</t>
         </is>
       </c>
     </row>
